--- a/experiments/experiments_definition.xlsx
+++ b/experiments/experiments_definition.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i589287/Documents/Repositories/master_thesis/experiments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A77421C5-F403-3443-A86F-E7B645865C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827A4281-4088-3345-93CD-FD56EC04E48E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="760" windowWidth="29000" windowHeight="18880" xr2:uid="{50CD2D90-D21A-D648-A29F-CF501D2CC0AB}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28900" windowHeight="18880" xr2:uid="{50CD2D90-D21A-D648-A29F-CF501D2CC0AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -297,8 +297,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F956784C-5284-3047-8D0F-FEB60FF4357C}" name="Table1" displayName="Table1" ref="A1:J11" totalsRowShown="0">
-  <autoFilter ref="A1:J11" xr:uid="{F956784C-5284-3047-8D0F-FEB60FF4357C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F956784C-5284-3047-8D0F-FEB60FF4357C}" name="Table1" displayName="Table1" ref="A1:J7" totalsRowShown="0">
+  <autoFilter ref="A1:J7" xr:uid="{F956784C-5284-3047-8D0F-FEB60FF4357C}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{1A80D95F-449A-CA4A-B82D-38EC644F0042}" name="Experiment ID"/>
     <tableColumn id="2" xr3:uid="{26F72EFA-6369-3748-A942-759B04E40909}" name="MCP" dataDxfId="5"/>
@@ -632,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E880D7BA-F59D-BD41-9D47-CA23D763271D}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -864,90 +864,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="I8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="I9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="I10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="I11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/experiments/experiments_definition.xlsx
+++ b/experiments/experiments_definition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i589287/Documents/Repositories/master_thesis/experiments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827A4281-4088-3345-93CD-FD56EC04E48E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6400BD-70F0-6947-B173-D7E3F799210C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="28900" windowHeight="18880" xr2:uid="{50CD2D90-D21A-D648-A29F-CF501D2CC0AB}"/>
+    <workbookView xWindow="2340" yWindow="7720" windowWidth="28900" windowHeight="18880" xr2:uid="{50CD2D90-D21A-D648-A29F-CF501D2CC0AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
   <si>
     <t>Experiment ID</t>
   </si>
@@ -53,32 +53,26 @@
     <t>LLM</t>
   </si>
   <si>
-    <t>Judge LLM</t>
-  </si>
-  <si>
-    <t>RAGe chunk count</t>
-  </si>
-  <si>
-    <t>RAGe help chunks</t>
-  </si>
-  <si>
     <t>Tools Preselection</t>
   </si>
   <si>
     <t>Done</t>
   </si>
   <si>
-    <t>gpt-4o</t>
+    <t>gpt-4.1</t>
   </si>
   <si>
-    <t>gemini 2.0 flash</t>
+    <t>o3</t>
+  </si>
+  <si>
+    <t>gemini-2.0-flash</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -91,6 +85,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -297,17 +297,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F956784C-5284-3047-8D0F-FEB60FF4357C}" name="Table1" displayName="Table1" ref="A1:J7" totalsRowShown="0">
-  <autoFilter ref="A1:J7" xr:uid="{F956784C-5284-3047-8D0F-FEB60FF4357C}"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F956784C-5284-3047-8D0F-FEB60FF4357C}" name="Table1" displayName="Table1" ref="A1:G13" totalsRowShown="0">
+  <autoFilter ref="A1:G13" xr:uid="{F956784C-5284-3047-8D0F-FEB60FF4357C}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{1A80D95F-449A-CA4A-B82D-38EC644F0042}" name="Experiment ID"/>
     <tableColumn id="2" xr3:uid="{26F72EFA-6369-3748-A942-759B04E40909}" name="MCP" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{95DB7729-D224-B64A-9057-247BD9430673}" name="Web Search" dataDxfId="4"/>
     <tableColumn id="4" xr3:uid="{649328EE-A79A-724A-8072-4A2A93C96562}" name="Sequential Thinking" dataDxfId="3"/>
     <tableColumn id="5" xr3:uid="{13F17B16-0DCD-264B-ADD1-F8930C488FBB}" name="LLM" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{249EF4CF-B94F-644A-B929-1F8CB1B1878E}" name="Judge LLM"/>
-    <tableColumn id="7" xr3:uid="{B6E7F9D4-CB6B-8D49-8C2D-78DEE364E1D2}" name="RAGe chunk count"/>
-    <tableColumn id="8" xr3:uid="{A43BD002-8A4C-7940-96D3-0E4443DC34C7}" name="RAGe help chunks"/>
     <tableColumn id="9" xr3:uid="{12717C83-02A8-544B-9F83-17BC8C8AE9B7}" name="Tools Preselection" dataDxfId="1"/>
     <tableColumn id="10" xr3:uid="{25ACF5D9-F9A4-F243-B58F-5D74EF0D2A73}" name="Done" dataDxfId="0"/>
   </tableColumns>
@@ -632,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E880D7BA-F59D-BD41-9D47-CA23D763271D}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -644,14 +641,12 @@
     <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -673,49 +668,31 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2">
-        <v>3</v>
-      </c>
-      <c r="H2">
-        <v>3</v>
-      </c>
-      <c r="I2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -729,25 +706,16 @@
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
-      </c>
-      <c r="H3">
-        <v>3</v>
-      </c>
-      <c r="I3" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="F3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -761,25 +729,16 @@
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
-      <c r="I4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -793,62 +752,44 @@
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-      <c r="H5">
-        <v>3</v>
-      </c>
-      <c r="I5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="F5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6">
-        <v>3</v>
-      </c>
-      <c r="I6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="2" t="b">
         <v>0</v>
@@ -856,15 +797,156 @@
       <c r="D7" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="I7" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2" t="b">
+      <c r="E7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">

--- a/experiments/experiments_definition.xlsx
+++ b/experiments/experiments_definition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i589287/Documents/Repositories/master_thesis/experiments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6400BD-70F0-6947-B173-D7E3F799210C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037DFD55-4C8F-5347-979F-C5918869A191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="7720" windowWidth="28900" windowHeight="18880" xr2:uid="{50CD2D90-D21A-D648-A29F-CF501D2CC0AB}"/>
+    <workbookView xWindow="100" yWindow="760" windowWidth="28900" windowHeight="18880" xr2:uid="{50CD2D90-D21A-D648-A29F-CF501D2CC0AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -632,7 +632,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -712,7 +712,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -735,7 +735,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">

--- a/experiments/experiments_definition.xlsx
+++ b/experiments/experiments_definition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i589287/Documents/Repositories/master_thesis/experiments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037DFD55-4C8F-5347-979F-C5918869A191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC5605B-4529-9D48-B672-D221F1518123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="100" yWindow="760" windowWidth="28900" windowHeight="18880" xr2:uid="{50CD2D90-D21A-D648-A29F-CF501D2CC0AB}"/>
   </bookViews>
@@ -632,7 +632,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
